--- a/target/test-classes/testData/vtigerTestData.xlsx
+++ b/target/test-classes/testData/vtigerTestData.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\practice\java\eclipse-workspace_java1\vtiger1\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5C97C9-5742-48CF-AE96-6499556326C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E43FEDB-F5AA-4704-A064-1CAD60420435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lead" sheetId="1" r:id="rId1"/>
+    <sheet name="Leads" sheetId="1" r:id="rId1"/>
+    <sheet name="Organizations" sheetId="2" r:id="rId2"/>
+    <sheet name="Campaigns" sheetId="3" r:id="rId3"/>
+    <sheet name="Opportunities" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Salutation</t>
   </si>
@@ -49,6 +52,57 @@
   </si>
   <si>
     <t>IITD</t>
+  </si>
+  <si>
+    <t>OrganizationName</t>
+  </si>
+  <si>
+    <t>StarAgile</t>
+  </si>
+  <si>
+    <t>Campaign Name</t>
+  </si>
+  <si>
+    <t>SaveLion</t>
+  </si>
+  <si>
+    <t>AssignedTo</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Support Group</t>
+  </si>
+  <si>
+    <t>Organization Name</t>
+  </si>
+  <si>
+    <t>Opportunity Name</t>
+  </si>
+  <si>
+    <t>MyOpportunity1</t>
+  </si>
+  <si>
+    <t>OrganizationPopupTitlePartial</t>
+  </si>
+  <si>
+    <t>Accounts&amp;action</t>
+  </si>
+  <si>
+    <t>Expected Close Date</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
 </sst>
 </file>
@@ -90,7 +144,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -98,6 +152,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -390,7 +445,7 @@
     <col min="4" max="4" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -416,6 +471,151 @@
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A7B57D-D51E-4560-8491-E859064C35BE}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.6328125" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A67A158-EBB9-4C68-B6D7-4038E3AD8539}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{943AB6FC-D01F-4AF7-8374-27545BA53ED9}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20.08984375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.90625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.36328125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>1992</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
